--- a/Question/Languages/Java/Java _A.xlsx
+++ b/Question/Languages/Java/Java _A.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\Java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E62EE9-12C3-4DF0-BAA2-7AE80875AD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>What is singleton class in Java and how can we make a class singleton?</t>
+  </si>
+  <si>
+    <t>Singleton class is a class whose only one instance can be created at any given time, in one JVM. A class can be made singleton by making its constructor private</t>
+  </si>
+  <si>
+    <t>What is a key difference between an instance variable and a local variable?</t>
+  </si>
+  <si>
+    <t>Unlike an instance variable, which is not limited to a method, a local variable can only be used within a specific method, block or constructor</t>
+  </si>
+  <si>
+    <t>What does the word “final” mean in Java in relation to describing a method, and what does "final class" mean?</t>
+  </si>
+  <si>
+    <t>Final is a modifier that indicates a lack of access. For example, the term final method indicates a method that cannot be overridden by the class that inherits it</t>
+  </si>
+  <si>
+    <t>What does JIT mean in Java, and what does it do?</t>
+  </si>
+  <si>
+    <t>The JIT compiler converts bytecode of the method, which is created in Java, into instructions that are in the native code of the machine to which the Java method is sent. This code, which is sent to the processor, is compiled by the JIT compiler just-in-time for execution</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +380,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="98.140625" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Question/Languages/Java/Java _A.xlsx
+++ b/Question/Languages/Java/Java _A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E62EE9-12C3-4DF0-BAA2-7AE80875AD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26019B18-20E7-4E10-9750-6954ED4E1F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
